--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/123/word_level_predictions_123.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -785,7 +785,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G7" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,109 +4501,109 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5338,158 +5338,158 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>10</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Loading</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>10</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" t="n">
         <v>10</v>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" t="n">
         <v>2</v>
       </c>
-      <c r="E97" s="2" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -9545,579 +9545,579 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10977,291 +10977,291 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11474,418 +11474,418 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12670,262 +12670,262 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/123/word_level_predictions_123.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -785,7 +785,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G7" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -4477,133 +4477,133 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Taking</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>Taking</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_E</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5338,158 +5338,158 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>Loading</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="D95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="D96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9521,603 +9521,603 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>16</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Propulsion</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>16</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>3</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>16</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>4</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>16</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>5</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>16</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>6</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>16</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ensure</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>7</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>16</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>8</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>16</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>9</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>16</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>10</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>16</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>11</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>16</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>battery</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>12</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>Propulsion</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E176" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>limited</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>ensure</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>health</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,291 +10977,291 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11474,418 +11474,418 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12670,262 +12670,262 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
